--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>صندوق</t>
   </si>
@@ -40,6 +40,9 @@
     <t>اوراق سپرده</t>
   </si>
   <si>
+    <t>NAV</t>
+  </si>
+  <si>
     <t>بیدار</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>نارنج اهرم</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -419,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,13 +450,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>29616754</v>
@@ -467,8 +470,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>964504</v>
@@ -479,13 +482,16 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>30727458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>47629012</v>
@@ -508,13 +514,16 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>60107705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>37169639</v>
@@ -525,8 +534,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1756133</v>
@@ -537,13 +546,16 @@
       <c r="I4">
         <v>83630</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>46527670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>33486376</v>
@@ -554,8 +566,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>15</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1618970</v>
@@ -566,13 +578,16 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>37707461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>114253118</v>
@@ -583,8 +598,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6">
         <v>4174634</v>
@@ -595,13 +610,16 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>125516574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>51480832</v>
@@ -612,8 +630,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
         <v>2609900</v>
@@ -624,13 +642,16 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>55878677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>22441600</v>
@@ -641,8 +662,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>777864</v>
@@ -652,6 +673,9 @@
       </c>
       <c r="I8">
         <v>0</v>
+      </c>
+      <c r="J8">
+        <v>26208583</v>
       </c>
     </row>
   </sheetData>

--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>29616754</v>
+        <v>29647113</v>
       </c>
       <c r="D2">
-        <v>146200</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>964504</v>
+        <v>965126</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30727458</v>
+        <v>30612270</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>47629012</v>
+        <v>47447144</v>
       </c>
       <c r="D3">
-        <v>10594341</v>
+        <v>9751092</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1812178</v>
+        <v>1754745</v>
       </c>
       <c r="H3">
-        <v>72174</v>
+        <v>72209</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>60107705</v>
+        <v>59025190</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37169639</v>
+        <v>37234098</v>
       </c>
       <c r="D4">
-        <v>5579352</v>
+        <v>5579370</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1756133</v>
+        <v>1758345</v>
       </c>
       <c r="H4">
-        <v>1938916</v>
+        <v>1940035</v>
       </c>
       <c r="I4">
-        <v>83630</v>
+        <v>74080</v>
       </c>
       <c r="J4">
-        <v>46527670</v>
+        <v>46585928</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>33486376</v>
+        <v>33568280</v>
       </c>
       <c r="D5">
-        <v>2602115</v>
+        <v>2381040</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1618970</v>
+        <v>1592185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>37707461</v>
+        <v>37541505</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>114253118</v>
+        <v>114013796</v>
       </c>
       <c r="D6">
-        <v>6573784</v>
+        <v>6198034</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4174634</v>
+        <v>3990623</v>
       </c>
       <c r="H6">
-        <v>515038</v>
+        <v>509063</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>125516574</v>
+        <v>124711516</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51480832</v>
+        <v>51452498</v>
       </c>
       <c r="D7">
-        <v>1787945</v>
+        <v>1781763</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2609900</v>
+        <v>2612644</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55878677</v>
+        <v>55846905</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>22441600</v>
+        <v>22774955</v>
       </c>
       <c r="D8">
-        <v>2989119</v>
+        <v>2874520</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>777864</v>
+        <v>686604</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>26208583</v>
+        <v>26336079</v>
       </c>
     </row>
   </sheetData>

--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>29647113</v>
+        <v>29238088</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>5751</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>965126</v>
+        <v>1146425</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30612270</v>
+        <v>30390264</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>47447144</v>
+        <v>47456193</v>
       </c>
       <c r="D3">
-        <v>9751092</v>
+        <v>10334896</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1754745</v>
+        <v>1756990</v>
       </c>
       <c r="H3">
-        <v>72209</v>
+        <v>72385</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>59025190</v>
+        <v>59620464</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37234098</v>
+        <v>37563722</v>
       </c>
       <c r="D4">
-        <v>5579370</v>
+        <v>5706835</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1758345</v>
+        <v>1619132</v>
       </c>
       <c r="H4">
-        <v>1940035</v>
+        <v>1944524</v>
       </c>
       <c r="I4">
-        <v>74080</v>
+        <v>92073</v>
       </c>
       <c r="J4">
-        <v>46585928</v>
+        <v>46926286</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>33568280</v>
+        <v>33605540</v>
       </c>
       <c r="D5">
-        <v>2381040</v>
+        <v>2992213</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1592185</v>
+        <v>1629211</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>37541505</v>
+        <v>38226964</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>114013796</v>
+        <v>113794190</v>
       </c>
       <c r="D6">
-        <v>6198034</v>
+        <v>5800711</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3990623</v>
+        <v>3979596</v>
       </c>
       <c r="H6">
-        <v>509063</v>
+        <v>500066</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>124711516</v>
+        <v>124074563</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51452498</v>
+        <v>51459973</v>
       </c>
       <c r="D7">
-        <v>1781763</v>
+        <v>1476872</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2612644</v>
+        <v>2552079</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55846905</v>
+        <v>55488924</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>22774955</v>
+        <v>22752138</v>
       </c>
       <c r="D8">
-        <v>2874520</v>
+        <v>2896567</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>686604</v>
+        <v>689760</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>26336079</v>
+        <v>26338465</v>
       </c>
     </row>
   </sheetData>

--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>29238088</v>
+        <v>28720903</v>
       </c>
       <c r="D2">
-        <v>5751</v>
+        <v>160764</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1146425</v>
+        <v>1008585</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>30390264</v>
+        <v>29890252</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>47456193</v>
+        <v>47255346</v>
       </c>
       <c r="D3">
-        <v>10334896</v>
+        <v>11139872</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1756990</v>
+        <v>1719716</v>
       </c>
       <c r="H3">
-        <v>72385</v>
+        <v>72455</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>59620464</v>
+        <v>60187389</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37563722</v>
+        <v>37371243</v>
       </c>
       <c r="D4">
-        <v>5706835</v>
+        <v>5475604</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1619132</v>
+        <v>1596692</v>
       </c>
       <c r="H4">
-        <v>1944524</v>
+        <v>1945650</v>
       </c>
       <c r="I4">
-        <v>92073</v>
+        <v>25310</v>
       </c>
       <c r="J4">
-        <v>46926286</v>
+        <v>46414499</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>33605540</v>
+        <v>33564872</v>
       </c>
       <c r="D5">
-        <v>2992213</v>
+        <v>3040838</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1629211</v>
+        <v>1429226</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>38226964</v>
+        <v>38034936</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>113794190</v>
+        <v>112973155</v>
       </c>
       <c r="D6">
-        <v>5800711</v>
+        <v>8737417</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3979596</v>
+        <v>3310352</v>
       </c>
       <c r="H6">
-        <v>500066</v>
+        <v>493216</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>124074563</v>
+        <v>125514140</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51459973</v>
+        <v>51099346</v>
       </c>
       <c r="D7">
-        <v>1476872</v>
+        <v>1394623</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2552079</v>
+        <v>2532988</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55488924</v>
+        <v>55026957</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>22752138</v>
+        <v>22932332</v>
       </c>
       <c r="D8">
-        <v>2896567</v>
+        <v>2839340</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>689760</v>
+        <v>599833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>26338465</v>
+        <v>26371505</v>
       </c>
     </row>
   </sheetData>

--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37371243</v>
+        <v>37292908</v>
       </c>
       <c r="D4">
-        <v>5475604</v>
+        <v>5434800</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1596692</v>
+        <v>2512130</v>
       </c>
       <c r="H4">
-        <v>1945650</v>
+        <v>867773</v>
       </c>
       <c r="I4">
-        <v>25310</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>46414499</v>
+        <v>46107611</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/ahromcomb1.xlsx
+++ b/ahromcomb1.xlsx
@@ -462,10 +462,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>28720903</v>
+        <v>29656989</v>
       </c>
       <c r="D2">
-        <v>160764</v>
+        <v>342713</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1008585</v>
+        <v>842888</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>29890252</v>
+        <v>30842590</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>47255346</v>
+        <v>48186320</v>
       </c>
       <c r="D3">
-        <v>11139872</v>
+        <v>11749638</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1719716</v>
+        <v>1625509</v>
       </c>
       <c r="H3">
-        <v>72455</v>
+        <v>72526</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>60187389</v>
+        <v>61633993</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,10 +526,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>37292908</v>
+        <v>38503090</v>
       </c>
       <c r="D4">
-        <v>5434800</v>
+        <v>5437227</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2512130</v>
+        <v>1485621</v>
       </c>
       <c r="H4">
-        <v>867773</v>
+        <v>860026</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>756800</v>
       </c>
       <c r="J4">
-        <v>46107611</v>
+        <v>47042764</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>33564872</v>
+        <v>34551670</v>
       </c>
       <c r="D5">
-        <v>3040838</v>
+        <v>4152206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1429226</v>
+        <v>1345681</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>38034936</v>
+        <v>40049557</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>112973155</v>
+        <v>115651542</v>
       </c>
       <c r="D6">
-        <v>8737417</v>
+        <v>8244878</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3310352</v>
+        <v>3261052</v>
       </c>
       <c r="H6">
-        <v>493216</v>
+        <v>501456</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>125514140</v>
+        <v>127658928</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>51099346</v>
+        <v>52734305</v>
       </c>
       <c r="D7">
-        <v>1394623</v>
+        <v>1326126</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2532988</v>
+        <v>2537846</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55026957</v>
+        <v>56598277</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>22932332</v>
+        <v>23124564</v>
       </c>
       <c r="D8">
-        <v>2839340</v>
+        <v>2847987</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>599833</v>
+        <v>601354</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>26371505</v>
+        <v>26573905</v>
       </c>
     </row>
   </sheetData>
